--- a/flows/HYGV_fund_flow_data.xlsx
+++ b/flows/HYGV_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1412"/>
+  <dimension ref="A1:B1430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14555,6 +14555,186 @@
         <v>2.030115</v>
       </c>
     </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>2.032955</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>-8.129479999999999</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>2.03925</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>4.08722</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>-8.184139999999999</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>63.40709</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>-36.86256</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1421" t="n">
+        <v>4.07617</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1422" t="n">
+        <v>10.20115</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1423" t="n">
+        <v>10.209075</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1424" t="n">
+        <v>8.18032</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1425" t="n">
+        <v>-18.436186</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1426" t="n">
+        <v>-4.10135</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>4.10213</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>2.053135</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>8.18698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
